--- a/result/IPI_minus.xlsx
+++ b/result/IPI_minus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{5442040F-207C-425E-A0BB-A15CC578E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A3867B-357F-41C7-BCE0-FB34F403544E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{5442040F-207C-425E-A0BB-A15CC578E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77ABCD24-2CF9-4FDA-9621-D417EF2CDC16}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{545F2D96-5D8E-46CF-859C-24D00E1F13A5}"/>
   </bookViews>

--- a/result/IPI_minus.xlsx
+++ b/result/IPI_minus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5442040F-207C-425E-A0BB-A15CC578E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77ABCD24-2CF9-4FDA-9621-D417EF2CDC16}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{5442040F-207C-425E-A0BB-A15CC578E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8083732D-7408-452D-8348-957E4781D2D6}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{545F2D96-5D8E-46CF-859C-24D00E1F13A5}"/>
   </bookViews>

--- a/result/IPI_minus.xlsx
+++ b/result/IPI_minus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{5442040F-207C-425E-A0BB-A15CC578E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8083732D-7408-452D-8348-957E4781D2D6}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{5442040F-207C-425E-A0BB-A15CC578E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85845690-AF36-409F-98E9-21E607628817}"/>
   <bookViews>
-    <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{545F2D96-5D8E-46CF-859C-24D00E1F13A5}"/>
+    <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{545F2D96-5D8E-46CF-859C-24D00E1F13A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,16 +393,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>1.4598756488026017E-3</v>
+        <v>1.4598756488025605E-3</v>
       </c>
       <c r="B1">
-        <v>-0.71563858445062778</v>
+        <v>-0.71563858445062789</v>
       </c>
       <c r="C1">
-        <v>-0.21285603293610156</v>
+        <v>-0.21285603293610167</v>
       </c>
       <c r="D1">
-        <v>-6.4407472600556487E-2</v>
+        <v>-6.4407472600556515E-2</v>
       </c>
       <c r="E1">
         <v>-0.25</v>
@@ -410,16 +410,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>1.7861341185779887E-2</v>
+        <v>1.7861341185779794E-2</v>
       </c>
       <c r="B2">
-        <v>-0.51105890260768683</v>
+        <v>-0.51105890260768716</v>
       </c>
       <c r="C2">
-        <v>-0.24124074610718441</v>
+        <v>-0.2412407461071846</v>
       </c>
       <c r="D2">
-        <v>-0.10460610130119823</v>
+        <v>-0.10460610130119828</v>
       </c>
       <c r="E2">
         <v>-0.25</v>
@@ -427,36 +427,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>5.1360314363167139E-2</v>
+        <v>5.1360314363167001E-2</v>
       </c>
       <c r="B3">
-        <v>-0.25444014181812497</v>
+        <v>-0.25444014181812524</v>
       </c>
       <c r="C3">
-        <v>-0.15465694564062177</v>
+        <v>-0.15465694564062193</v>
       </c>
       <c r="D3">
-        <v>-0.11809116494772165</v>
+        <v>-0.11809116494772169</v>
       </c>
       <c r="E3">
-        <v>-0.24999999999999997</v>
+        <v>-0.24999999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>9.3518569511168007E-2</v>
+        <v>9.3518569511167923E-2</v>
       </c>
       <c r="B4">
-        <v>-7.8394634658821932E-2</v>
+        <v>-7.8394634658822127E-2</v>
       </c>
       <c r="C4">
-        <v>-8.3186460946544402E-2</v>
+        <v>-8.3186460946544513E-2</v>
       </c>
       <c r="D4">
-        <v>-0.11451847722172068</v>
+        <v>-0.11451847722172073</v>
       </c>
       <c r="E4">
-        <v>-0.2268418585151023</v>
+        <v>-0.22684185851510288</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -464,730 +464,730 @@
         <v>0.1115609894829336</v>
       </c>
       <c r="B5">
-        <v>1.4818920362573051E-2</v>
+        <v>1.4818920362572961E-2</v>
       </c>
       <c r="C5">
-        <v>-4.1025129886170006E-2</v>
+        <v>-4.1025129886170061E-2</v>
       </c>
       <c r="D5">
-        <v>-0.10287811143913424</v>
+        <v>-0.10287811143913431</v>
       </c>
       <c r="E5">
-        <v>-5.0850315248111025E-2</v>
+        <v>-5.08503152481114E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0.10473049257302749</v>
+        <v>0.10473049257302752</v>
       </c>
       <c r="B6">
-        <v>4.8926350992242934E-2</v>
+        <v>4.8926350992242941E-2</v>
       </c>
       <c r="C6">
-        <v>-2.1883274642949223E-2</v>
+        <v>-2.1883274642949271E-2</v>
       </c>
       <c r="D6">
-        <v>-8.9215709820310324E-2</v>
+        <v>-8.9215709820310352E-2</v>
       </c>
       <c r="E6">
-        <v>4.5476565763423973E-2</v>
+        <v>4.5476565763423842E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>8.4102284271966338E-2</v>
+        <v>8.4102284271966393E-2</v>
       </c>
       <c r="B7">
-        <v>4.9199396426241312E-2</v>
+        <v>4.9199396426241347E-2</v>
       </c>
       <c r="C7">
-        <v>-1.6562155124710307E-2</v>
+        <v>-1.6562155124710293E-2</v>
       </c>
       <c r="D7">
-        <v>-7.6758350258120681E-2</v>
+        <v>-7.6758350258120694E-2</v>
       </c>
       <c r="E7">
-        <v>7.1874655029353265E-2</v>
+        <v>7.1874655029353279E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>6.1022145412915077E-2</v>
+        <v>6.1022145412915126E-2</v>
       </c>
       <c r="B8">
-        <v>3.5471554462323612E-2</v>
+        <v>3.5471554462323668E-2</v>
       </c>
       <c r="C8">
-        <v>-1.7469573159282832E-2</v>
+        <v>-1.7469573159282825E-2</v>
       </c>
       <c r="D8">
-        <v>-6.6657658833280689E-2</v>
+        <v>-6.6657658833280703E-2</v>
       </c>
       <c r="E8">
-        <v>5.6601710351352842E-2</v>
+        <v>5.6601710351352905E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>4.2456734282100519E-2</v>
+        <v>4.2456734282100547E-2</v>
       </c>
       <c r="B9">
-        <v>2.0228720801143539E-2</v>
+        <v>2.022872080114356E-2</v>
       </c>
       <c r="C9">
-        <v>-1.9708396707581358E-2</v>
+        <v>-1.9708396707581351E-2</v>
       </c>
       <c r="D9">
-        <v>-5.8837884666182512E-2</v>
+        <v>-5.8837884666182526E-2</v>
       </c>
       <c r="E9">
-        <v>2.6888113093565327E-2</v>
+        <v>2.6888113093565383E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>3.0653110619294634E-2</v>
+        <v>3.0653110619294648E-2</v>
       </c>
       <c r="B10">
-        <v>9.2844303176405248E-3</v>
+        <v>9.2844303176405352E-3</v>
       </c>
       <c r="C10">
-        <v>-2.089765091836044E-2</v>
+        <v>-2.089765091836045E-2</v>
       </c>
       <c r="D10">
-        <v>-5.2706876317638443E-2</v>
+        <v>-5.270687631763845E-2</v>
       </c>
       <c r="E10">
-        <v>4.027598535255323E-4</v>
+        <v>4.0275985352554444E-4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>2.4715628442914861E-2</v>
+        <v>2.4715628442914868E-2</v>
       </c>
       <c r="B11">
-        <v>3.7797454123845017E-3</v>
+        <v>3.7797454123845078E-3</v>
       </c>
       <c r="C11">
-        <v>-2.0447632574274545E-2</v>
+        <v>-2.0447632574274548E-2</v>
       </c>
       <c r="D11">
-        <v>-4.7623080361936375E-2</v>
+        <v>-4.7623080361936382E-2</v>
       </c>
       <c r="E11">
-        <v>-1.5535375041597674E-2</v>
+        <v>-1.5535375041597665E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>2.2468189732663169E-2</v>
+        <v>2.2468189732663173E-2</v>
       </c>
       <c r="B12">
-        <v>2.4204892239511056E-3</v>
+        <v>2.4204892239511047E-3</v>
       </c>
       <c r="C12">
-        <v>-1.8730446237205867E-2</v>
+        <v>-1.8730446237205871E-2</v>
       </c>
       <c r="D12">
-        <v>-4.3119159099206501E-2</v>
+        <v>-4.3119159099206515E-2</v>
       </c>
       <c r="E12">
-        <v>-2.0919187902279156E-2</v>
+        <v>-2.091918790227917E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>2.1795658165429929E-2</v>
+        <v>2.1795658165429936E-2</v>
       </c>
       <c r="B13">
-        <v>3.2345673177331851E-3</v>
+        <v>3.234567317733189E-3</v>
       </c>
       <c r="C13">
-        <v>-1.6417547681918766E-2</v>
+        <v>-1.6417547681918773E-2</v>
       </c>
       <c r="D13">
-        <v>-3.8947323721681928E-2</v>
+        <v>-3.8947323721681942E-2</v>
       </c>
       <c r="E13">
-        <v>-1.9219468693437814E-2</v>
+        <v>-1.9219468693437835E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>2.1279116974045467E-2</v>
+        <v>2.1279116974045477E-2</v>
       </c>
       <c r="B14">
-        <v>4.589518376937776E-3</v>
+        <v>4.5895183769377856E-3</v>
       </c>
       <c r="C14">
-        <v>-1.4086223685584039E-2</v>
+        <v>-1.4086223685584038E-2</v>
       </c>
       <c r="D14">
-        <v>-3.5029007932806153E-2</v>
+        <v>-3.5029007932806167E-2</v>
       </c>
       <c r="E14">
-        <v>-1.4428144015164098E-2</v>
+        <v>-1.4428144015164112E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>2.0279109228878142E-2</v>
+        <v>2.0279109228878153E-2</v>
       </c>
       <c r="B15">
-        <v>5.5516351743219701E-3</v>
+        <v>5.551635174321984E-3</v>
       </c>
       <c r="C15">
-        <v>-1.2070800720401703E-2</v>
+        <v>-1.2070800720401698E-2</v>
       </c>
       <c r="D15">
-        <v>-3.1376750053164627E-2</v>
+        <v>-3.1376750053164634E-2</v>
       </c>
       <c r="E15">
-        <v>-9.4820954799833563E-3</v>
+        <v>-9.4820954799833598E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>1.8725146528619441E-2</v>
+        <v>1.8725146528619459E-2</v>
       </c>
       <c r="B16">
-        <v>5.8243612531310917E-3</v>
+        <v>5.8243612531311134E-3</v>
       </c>
       <c r="C16">
-        <v>-1.0474186979302568E-2</v>
+        <v>-1.0474186979302559E-2</v>
       </c>
       <c r="D16">
-        <v>-2.8028650035598013E-2</v>
+        <v>-2.802865003559802E-2</v>
       </c>
       <c r="E16">
-        <v>-5.8566956413694093E-3</v>
+        <v>-5.8566956413694049E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>1.6832221187794188E-2</v>
+        <v>1.6832221187794205E-2</v>
       </c>
       <c r="B17">
-        <v>5.5099373171572643E-3</v>
+        <v>5.5099373171572895E-3</v>
       </c>
       <c r="C17">
-        <v>-9.2502145227420316E-3</v>
+        <v>-9.2502145227420195E-3</v>
       </c>
       <c r="D17">
-        <v>-2.5010177173850037E-2</v>
+        <v>-2.5010177173850043E-2</v>
       </c>
       <c r="E17">
-        <v>-3.8482276147504598E-3</v>
+        <v>-3.8482276147504438E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>1.4874084275922243E-2</v>
+        <v>1.487408427592226E-2</v>
       </c>
       <c r="B18">
-        <v>4.8656688588716553E-3</v>
+        <v>4.8656688588716822E-3</v>
       </c>
       <c r="C18">
-        <v>-8.2922183279606609E-3</v>
+        <v>-8.2922183279606522E-3</v>
       </c>
       <c r="D18">
-        <v>-2.2321351030905087E-2</v>
+        <v>-2.2321351030905091E-2</v>
       </c>
       <c r="E18">
-        <v>-3.0923396303756314E-3</v>
+        <v>-3.0923396303756071E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>1.3056994963782494E-2</v>
+        <v>1.3056994963782506E-2</v>
       </c>
       <c r="B19">
-        <v>4.1373418471302228E-3</v>
+        <v>4.1373418471302497E-3</v>
       </c>
       <c r="C19">
-        <v>-7.4954915107227687E-3</v>
+        <v>-7.4954915107227566E-3</v>
       </c>
       <c r="D19">
         <v>-1.994006867188191E-2</v>
       </c>
       <c r="E19">
-        <v>-3.0262054592150845E-3</v>
+        <v>-3.0262054592150533E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>1.1482231629614079E-2</v>
+        <v>1.1482231629614087E-2</v>
       </c>
       <c r="B20">
-        <v>3.4837066802973302E-3</v>
+        <v>3.483706680297351E-3</v>
       </c>
       <c r="C20">
-        <v>-6.7868540033195549E-3</v>
+        <v>-6.786854003319541E-3</v>
       </c>
       <c r="D20">
         <v>-1.7831928890185776E-2</v>
       </c>
       <c r="E20">
-        <v>-3.1735091101565641E-3</v>
+        <v>-3.1735091101565411E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>1.0162982093046842E-2</v>
+        <v>1.0162982093046851E-2</v>
       </c>
       <c r="B21">
-        <v>2.9689423502322222E-3</v>
+        <v>2.9689423502322417E-3</v>
       </c>
       <c r="C21">
-        <v>-6.1288663900075802E-3</v>
+        <v>-6.1288663900075698E-3</v>
       </c>
       <c r="D21">
         <v>-1.5959850478548157E-2</v>
       </c>
       <c r="E21">
-        <v>-3.2523102008152863E-3</v>
+        <v>-3.2523102008152672E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>9.0615767848998448E-3</v>
+        <v>9.0615767848998517E-3</v>
       </c>
       <c r="B22">
-        <v>2.5899610608483914E-3</v>
+        <v>2.5899610608484096E-3</v>
       </c>
       <c r="C22">
-        <v>-5.5105453249841866E-3</v>
+        <v>-5.5105453249841754E-3</v>
       </c>
       <c r="D22">
-        <v>-1.429036744000247E-2</v>
+        <v>-1.4290367440002465E-2</v>
       </c>
       <c r="E22">
-        <v>-3.1634227419397799E-3</v>
+        <v>-3.1634227419397635E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>8.1242480616431738E-3</v>
+        <v>8.1242480616431807E-3</v>
       </c>
       <c r="B23">
-        <v>2.3114249818285883E-3</v>
+        <v>2.3114249818286066E-3</v>
       </c>
       <c r="C23">
-        <v>-4.9346288707000415E-3</v>
+        <v>-4.9346288707000302E-3</v>
       </c>
       <c r="D23">
-        <v>-1.2796206122037674E-2</v>
+        <v>-1.2796206122037669E-2</v>
       </c>
       <c r="E23">
-        <v>-2.9256225557446692E-3</v>
+        <v>-2.925622555744654E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>7.3033577274832185E-3</v>
+        <v>7.3033577274832255E-3</v>
       </c>
       <c r="B24">
-        <v>2.0930402290846822E-3</v>
+        <v>2.0930402290847009E-3</v>
       </c>
       <c r="C24">
-        <v>-4.4073069714275683E-3</v>
+        <v>-4.4073069714275553E-3</v>
       </c>
       <c r="D24">
-        <v>-1.1456173950436663E-2</v>
+        <v>-1.1456173950436657E-2</v>
       </c>
       <c r="E24">
-        <v>-2.6065695623039057E-3</v>
+        <v>-2.606569562303887E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>6.5663814169887296E-3</v>
+        <v>6.5663814169887339E-3</v>
       </c>
       <c r="B25">
-        <v>1.904284838418909E-3</v>
+        <v>1.9042848384189261E-3</v>
       </c>
       <c r="C25">
-        <v>-3.9324374271426576E-3</v>
+        <v>-3.9324374271426446E-3</v>
       </c>
       <c r="D25">
-        <v>-1.0253732659439661E-2</v>
+        <v>-1.0253732659439654E-2</v>
       </c>
       <c r="E25">
-        <v>-2.2741318809234448E-3</v>
+        <v>-2.2741318809234314E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>5.8956217404241371E-3</v>
+        <v>5.8956217404241415E-3</v>
       </c>
       <c r="B26">
-        <v>1.7283504105856759E-3</v>
+        <v>1.7283504105856926E-3</v>
       </c>
       <c r="C26">
-        <v>-3.5097553910587091E-3</v>
+        <v>-3.5097553910586965E-3</v>
       </c>
       <c r="D26">
-        <v>-9.1753451831373834E-3</v>
+        <v>-9.175345183137373E-3</v>
       </c>
       <c r="E26">
-        <v>-1.9732416006464342E-3</v>
+        <v>-1.9732416006464208E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>5.283561063017821E-3</v>
+        <v>5.2835610630178245E-3</v>
       </c>
       <c r="B27">
-        <v>1.5596518392450138E-3</v>
+        <v>1.5596518392450298E-3</v>
       </c>
       <c r="C27">
-        <v>-3.1355450170485809E-3</v>
+        <v>-3.1355450170485674E-3</v>
       </c>
       <c r="D27">
-        <v>-8.2091954511229678E-3</v>
+        <v>-8.2091954511229574E-3</v>
       </c>
       <c r="E27">
-        <v>-1.7224277122131928E-3</v>
+        <v>-1.7224277122131772E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>4.7276153452674103E-3</v>
+        <v>4.7276153452674129E-3</v>
       </c>
       <c r="B28">
-        <v>1.399074569636551E-3</v>
+        <v>1.3990745696365657E-3</v>
       </c>
       <c r="C28">
-        <v>-2.8042478008074813E-3</v>
+        <v>-2.8042478008074678E-3</v>
       </c>
       <c r="D28">
-        <v>-7.3444511492546122E-3</v>
+        <v>-7.3444511492546001E-3</v>
       </c>
       <c r="E28">
-        <v>-1.5208390780371106E-3</v>
+        <v>-1.5208390780370969E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>4.2262788085797275E-3</v>
+        <v>4.2262788085797301E-3</v>
       </c>
       <c r="B29">
-        <v>1.2496774342558789E-3</v>
+        <v>1.2496774342558947E-3</v>
       </c>
       <c r="C29">
-        <v>-2.5099740487099656E-3</v>
+        <v>-2.5099740487099526E-3</v>
       </c>
       <c r="D29">
-        <v>-6.5709795767386675E-3</v>
+        <v>-6.5709795767386553E-3</v>
       </c>
       <c r="E29">
-        <v>-1.3579741771043551E-3</v>
+        <v>-1.3579741771043408E-3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>3.7771591071942036E-3</v>
+        <v>3.7771591071942045E-3</v>
       </c>
       <c r="B30">
-        <v>1.1140080169181883E-3</v>
+        <v>1.1140080169182035E-3</v>
       </c>
       <c r="C30">
-        <v>-2.2474663986113805E-3</v>
+        <v>-2.2474663986113658E-3</v>
       </c>
       <c r="D30">
-        <v>-5.8793306933095507E-3</v>
+        <v>-5.8793306933095386E-3</v>
       </c>
       <c r="E30">
-        <v>-1.2215246253673799E-3</v>
+        <v>-1.2215246253673663E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>3.3765276289478424E-3</v>
+        <v>3.3765276289478433E-3</v>
       </c>
       <c r="B31">
-        <v>9.9304113509351912E-4</v>
+        <v>9.930411350935343E-4</v>
       </c>
       <c r="C31">
-        <v>-2.0124653444882636E-3</v>
+        <v>-2.0124653444882497E-3</v>
       </c>
       <c r="D31">
-        <v>-5.2608172287532742E-3</v>
+        <v>-5.2608172287532621E-3</v>
       </c>
       <c r="E31">
-        <v>-1.1017692431067481E-3</v>
+        <v>-1.1017692431067349E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>3.0197187977127338E-3</v>
+        <v>3.0197187977127346E-3</v>
       </c>
       <c r="B32">
-        <v>8.8625044063312785E-4</v>
+        <v>8.8625044063314325E-4</v>
       </c>
       <c r="C32">
-        <v>-1.8016765541309652E-3</v>
+        <v>-1.8016765541309511E-3</v>
       </c>
       <c r="D32">
-        <v>-4.7075811385084978E-3</v>
+        <v>-4.7075811385084857E-3</v>
       </c>
       <c r="E32">
-        <v>-9.9287601411608413E-4</v>
+        <v>-9.9287601411607264E-4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>2.7017818677136738E-3</v>
+        <v>2.7017818677136747E-3</v>
       </c>
       <c r="B33">
-        <v>7.9215256727383269E-4</v>
+        <v>7.9215256727384841E-4</v>
       </c>
       <c r="C33">
-        <v>-1.6125142579144253E-3</v>
+        <v>-1.6125142579144105E-3</v>
       </c>
       <c r="D33">
-        <v>-4.2126051049880889E-3</v>
+        <v>-4.2126051049880759E-3</v>
       </c>
       <c r="E33">
-        <v>-8.9232572901385906E-4</v>
+        <v>-8.923257290138467E-4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>2.4180307908794681E-3</v>
+        <v>2.4180307908794698E-3</v>
       </c>
       <c r="B34">
-        <v>7.0896662553190785E-4</v>
+        <v>7.08966625531924E-4</v>
       </c>
       <c r="C34">
-        <v>-1.4428737902038838E-3</v>
+        <v>-1.4428737902038693E-3</v>
       </c>
       <c r="D34">
-        <v>-3.7696636492412891E-3</v>
+        <v>-3.7696636492412761E-3</v>
       </c>
       <c r="E34">
-        <v>-7.9957701647237044E-4</v>
+        <v>-7.9957701647235657E-4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>2.1643397898926647E-3</v>
+        <v>2.1643397898926668E-3</v>
       </c>
       <c r="B35">
-        <v>6.3497632105012582E-4</v>
+        <v>6.349763210501424E-4</v>
       </c>
       <c r="C35">
-        <v>-1.2908665408912859E-3</v>
+        <v>-1.2908665408912709E-3</v>
       </c>
       <c r="D35">
-        <v>-3.3732460519150615E-3</v>
+        <v>-3.3732460519150485E-3</v>
       </c>
       <c r="E35">
-        <v>-7.1488331800278158E-4</v>
+        <v>-7.1488331800276586E-4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>1.937230557975121E-3</v>
+        <v>1.9372305579751234E-3</v>
       </c>
       <c r="B36">
-        <v>5.6887792851146874E-4</v>
+        <v>5.6887792851148576E-4</v>
       </c>
       <c r="C36">
-        <v>-1.1548313263833113E-3</v>
+        <v>-1.1548313263832961E-3</v>
       </c>
       <c r="D36">
-        <v>-3.0184548936766742E-3</v>
+        <v>-3.0184548936766603E-3</v>
       </c>
       <c r="E36">
-        <v>-6.3840479420080481E-4</v>
+        <v>-6.3840479420078724E-4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>1.7337783758262463E-3</v>
+        <v>1.733778375826248E-3</v>
       </c>
       <c r="B37">
-        <v>5.0954235045461973E-4</v>
+        <v>5.0954235045463643E-4</v>
       </c>
       <c r="C37">
-        <v>-1.0330635412754746E-3</v>
+        <v>-1.033063541275459E-3</v>
       </c>
       <c r="D37">
-        <v>-2.7009351417048577E-3</v>
+        <v>-2.7009351417048434E-3</v>
       </c>
       <c r="E37">
-        <v>-5.7003759812095675E-4</v>
+        <v>-5.7003759812093897E-4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>1.5515288861948303E-3</v>
+        <v>1.5515288861948316E-3</v>
       </c>
       <c r="B38">
-        <v>4.5643449185268491E-4</v>
+        <v>4.5643449185270128E-4</v>
       </c>
       <c r="C38">
-        <v>-9.2424014180668467E-4</v>
+        <v>-9.2424014180666949E-4</v>
       </c>
       <c r="D38">
-        <v>-2.4167718746846791E-3</v>
+        <v>-2.4167718746846644E-3</v>
       </c>
       <c r="E38">
-        <v>-5.0909155538769865E-4</v>
+        <v>-5.0909155538768098E-4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>1.3882938646177911E-3</v>
+        <v>1.3882938646177917E-3</v>
       </c>
       <c r="B39">
-        <v>4.0860477684076361E-4</v>
+        <v>4.0860477684077933E-4</v>
       </c>
       <c r="C39">
-        <v>-8.2663741022803629E-4</v>
+        <v>-8.2663741022802101E-4</v>
       </c>
       <c r="D39">
-        <v>-2.162487976047389E-3</v>
+        <v>-2.1624879760473747E-3</v>
       </c>
       <c r="E39">
-        <v>-4.5500909455670516E-4</v>
+        <v>-4.5500909455668896E-4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>1.2422141984702465E-3</v>
+        <v>1.2422141984702469E-3</v>
       </c>
       <c r="B40">
-        <v>3.6630978071997445E-4</v>
+        <v>3.6630978071998963E-4</v>
       </c>
       <c r="C40">
-        <v>-7.396151881442453E-4</v>
+        <v>-7.3961518814423034E-4</v>
       </c>
       <c r="D40">
-        <v>-1.9348961779383264E-3</v>
+        <v>-1.9348961779383118E-3</v>
       </c>
       <c r="E40">
-        <v>-4.0645690916477241E-4</v>
+        <v>-4.0645690916475685E-4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>1.1114251084615315E-3</v>
+        <v>1.1114251084615317E-3</v>
       </c>
       <c r="B41">
-        <v>3.2780944284797864E-4</v>
+        <v>3.2780944284799382E-4</v>
       </c>
       <c r="C41">
-        <v>-6.6086616122318766E-4</v>
+        <v>-6.6086616122317302E-4</v>
       </c>
       <c r="D41">
-        <v>-1.7312526720675589E-3</v>
+        <v>-1.7312526720675444E-3</v>
       </c>
       <c r="E41">
-        <v>-3.6343963987088714E-4</v>
+        <v>-3.6343963987087212E-4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>9.9455833789269298E-4</v>
+        <v>9.945583378926932E-4</v>
       </c>
       <c r="B42">
-        <v>2.9523376903980926E-4</v>
+        <v>2.9523376903982406E-4</v>
       </c>
       <c r="C42">
-        <v>-5.9151398538213147E-4</v>
+        <v>-5.9151398538211672E-4</v>
       </c>
       <c r="D42">
-        <v>-1.5488688923678956E-3</v>
+        <v>-1.5488688923678811E-3</v>
       </c>
       <c r="E42">
-        <v>-3.2363448142117777E-4</v>
+        <v>-3.236344814211634E-4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>8.8975348370589269E-4</v>
+        <v>8.8975348370589312E-4</v>
       </c>
       <c r="B43">
-        <v>2.6365577798789574E-4</v>
+        <v>2.6365577798791021E-4</v>
       </c>
       <c r="C43">
-        <v>-5.2657946009126392E-4</v>
+        <v>-5.2657946009124939E-4</v>
       </c>
       <c r="D43">
-        <v>-1.3857416720358744E-3</v>
+        <v>-1.3857416720358601E-3</v>
       </c>
       <c r="E43">
-        <v>-2.892978173645809E-4</v>
+        <v>-2.8929781736456746E-4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>7.9647550966075906E-4</v>
+        <v>7.9647550966075961E-4</v>
       </c>
       <c r="B44">
-        <v>2.4146492051439956E-4</v>
+        <v>2.4146492051441398E-4</v>
       </c>
       <c r="C44">
-        <v>-4.7265020476774656E-4</v>
+        <v>-4.7265020476773236E-4</v>
       </c>
       <c r="D44">
-        <v>-1.2392930787063498E-3</v>
+        <v>-1.2392930787063353E-3</v>
       </c>
       <c r="E44">
-        <v>-2.5436264175067571E-4</v>
+        <v>-2.54362641750662E-4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>7.1211833106328375E-4</v>
+        <v>7.1211833106328429E-4</v>
       </c>
       <c r="B45">
-        <v>2.1253407769896917E-4</v>
+        <v>2.1253407769898305E-4</v>
       </c>
       <c r="C45">
-        <v>-4.1491979140851189E-4</v>
+        <v>-4.1491979140849801E-4</v>
       </c>
       <c r="D45">
-        <v>-1.1086286346298712E-3</v>
+        <v>-1.1086286346298567E-3</v>
       </c>
       <c r="E45">
-        <v>-2.2831124743486367E-4</v>
+        <v>-2.2831124743485023E-4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>6.3830405849438004E-4</v>
+        <v>6.3830405849438058E-4</v>
       </c>
       <c r="B46">
-        <v>2.0670833165313527E-4</v>
+        <v>2.067083316531483E-4</v>
       </c>
       <c r="C46">
-        <v>-3.7841494645787495E-4</v>
+        <v>-3.7841494645786161E-4</v>
       </c>
       <c r="D46">
-        <v>-9.9024830766440068E-4</v>
+        <v>-9.9024830766438615E-4</v>
       </c>
       <c r="E46">
-        <v>-1.9158293745325297E-4</v>
+        <v>-1.9158293745324045E-4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>5.6913406420518663E-4</v>
+        <v>5.6913406420518685E-4</v>
       </c>
       <c r="B47">
-        <v>1.6877660263944487E-4</v>
+        <v>1.6877660263945671E-4</v>
       </c>
       <c r="C47">
-        <v>-3.139529060730407E-4</v>
+        <v>-3.1395290607302845E-4</v>
       </c>
       <c r="D47">
-        <v>-8.8593606573705451E-4</v>
+        <v>-8.8593606573704031E-4</v>
       </c>
       <c r="E47">
-        <v>-1.7834240208850901E-4</v>
+        <v>-1.7834240208849808E-4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1195,50 +1195,50 @@
         <v>5.1301486577016086E-4</v>
       </c>
       <c r="B48">
-        <v>2.0243333865907975E-4</v>
+        <v>2.0243333865908929E-4</v>
       </c>
       <c r="C48">
-        <v>-3.101710958375821E-4</v>
+        <v>-3.1017109583757088E-4</v>
       </c>
       <c r="D48">
-        <v>-7.8798281934140235E-4</v>
+        <v>-7.8798281934138869E-4</v>
       </c>
       <c r="E48">
-        <v>-1.2224193805720934E-4</v>
+        <v>-1.2224193805720102E-4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>4.5201270425745331E-4</v>
+        <v>4.5201270425745336E-4</v>
       </c>
       <c r="B49">
-        <v>1.1660431755945803E-4</v>
+        <v>1.1660431755946582E-4</v>
       </c>
       <c r="C49">
-        <v>-1.9880541013106993E-4</v>
+        <v>-1.9880541013106155E-4</v>
       </c>
       <c r="D49">
-        <v>-7.0656997702032499E-4</v>
+        <v>-7.0656997702031176E-4</v>
       </c>
       <c r="E49">
-        <v>-1.4308891659863403E-4</v>
+        <v>-1.4308891659862839E-4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>4.1744458408882093E-4</v>
+        <v>4.1744458408882087E-4</v>
       </c>
       <c r="B50">
-        <v>2.6991630553317172E-4</v>
+        <v>2.6991630553317416E-4</v>
       </c>
       <c r="C50">
-        <v>-2.8880743740439209E-4</v>
+        <v>-2.8880743740438526E-4</v>
       </c>
       <c r="D50">
-        <v>-6.1868621159051032E-4</v>
+        <v>-6.1868621159049796E-4</v>
       </c>
       <c r="E50">
-        <v>-1.3038494003519955E-5</v>
+        <v>-1.303849400351948E-5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/result/IPI_minus.xlsx
+++ b/result/IPI_minus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{5442040F-207C-425E-A0BB-A15CC578E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85845690-AF36-409F-98E9-21E607628817}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{5442040F-207C-425E-A0BB-A15CC578E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{563D1D51-BE00-4704-AAB0-2ACD729554CA}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{545F2D96-5D8E-46CF-859C-24D00E1F13A5}"/>
   </bookViews>
